--- a/알고리즘/dataset/word_list.xlsx
+++ b/알고리즘/dataset/word_list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\movie_creazy\Untitled Folder\욕 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\알고리즘\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB2A50A-E588-4065-A938-84983464D188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D995A77-0A76-4B11-9DE3-E6D7758993E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bad_word" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bad_word!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3920,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
